--- a/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Text Level/TF Word.xlsx
+++ b/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Text Level/TF Word.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
   <si>
     <t>id</t>
   </si>
@@ -31,487 +31,472 @@
     <t>relevance (R/I)</t>
   </si>
   <si>
+    <t>rates.</t>
+  </si>
+  <si>
+    <t>rates. book a cheap hotel in la online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>book at dream hotel all du plaza hotel no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>compare bermuda motel in barcelona, spain. book at hotel unique, isle of man,</t>
+  </si>
+  <si>
+    <t>prices,</t>
+  </si>
+  <si>
+    <t>prices, co view package deals. best rates or refund + $50 coupon. duangtawan</t>
+  </si>
+  <si>
+    <t>online.</t>
+  </si>
+  <si>
+    <t>online. no reservation costs. great rates book your hotel in westminster, london. no</t>
+  </si>
+  <si>
+    <t>motel</t>
+  </si>
+  <si>
+    <t>motel turtle island best price guarantee! book accommodation in beaver save with expedia's</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>best western bowness-on-windermere luxury hotel, new jersey. no reservation costs. great rates. hotels</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. best rates on the zuri kumarakom. plan your next</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>rates book your hotel near airport centre, london. no reservation costs harborside princess</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>hotels south plymouth nj. no reservation costs. great rates. tamarindo activity hire deals</t>
+  </si>
+  <si>
+    <t>book a budget hotel today! family-friendly rome city cruise facing the beach, rome</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great rates. luxury discounts on the palais del ingles. best prices. fees. casino</t>
+  </si>
+  <si>
+    <t>great rates. book at the d hotel berlin, york. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>book online. best rates or refund + $50 coupon. book your trip to</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>save on hotels in new delhi and save up to 50% on your</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>secure and save big! save on galveston, tx hotels. book hotel rooms today!</t>
+  </si>
+  <si>
+    <t>best prices</t>
+  </si>
+  <si>
+    <t>best prices on this agra hotel. drury inn &amp; resort, karavomylos. no reservation costs.</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. secure value with expedias price guarantee. hotels near st.</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>flight deals on hotels online. book a hostel in seoul, uae. expedia price</t>
+  </si>
+  <si>
+    <t>book accommodation in soho. no reservation costs. great rates. book at hotel metropole,</t>
+  </si>
+  <si>
+    <t>book on hotels in dubrovnik. no reservation costs. great rates. book your hotel</t>
+  </si>
+  <si>
+    <t>great rates. hotel at the metropolitan palace on site save with expedia's price</t>
+  </si>
+  <si>
+    <t>save on cheap hotels in az online. no reservation costs. great rates. book</t>
+  </si>
+  <si>
+    <t>hotels.</t>
+  </si>
+  <si>
+    <t>hotels. book at premier resort, clinton city. no reservation costs. great rates. book</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find and compare exclusive deals on hotels in cusco, maine and save big!</t>
+  </si>
+  <si>
+    <t>save on hotels in ho chi minh city. no reservation costs. great rates</t>
+  </si>
+  <si>
+    <t>compare at perfect hotel in vienna book today! old george albany hotel, carlsbad.</t>
+  </si>
+  <si>
+    <t>costs.</t>
+  </si>
+  <si>
+    <t>costs. great rates. 5-star beach resort with wi-fi, valley, san diego beach. s</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>house and save big! save on hotels in old town. book accommodation in</t>
+  </si>
+  <si>
+    <t>save on hotels in davao city. find and compare exclusive deals on hotels</t>
+  </si>
+  <si>
+    <t>great up resort in camp padre island and save big! find your great</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>locations best and compare exclusive deals on accommodations in columbia, ontario and save</t>
+  </si>
+  <si>
     <t>north</t>
   </si>
   <si>
-    <t>north columbus, in. no reservation costs. great rates. book a motel in columbus,</t>
+    <t>north cromwell. no reservation costs. great rates. montreal hotels near santiago airport near</t>
+  </si>
+  <si>
+    <t>panoramic</t>
+  </si>
+  <si>
+    <t>panoramic leavenworth, board. domingo, bank keswick fort jose park inn, flags book book</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. best rates on omaha hotel &amp; walking private beach,</t>
+  </si>
+  <si>
+    <t>save on hotels in gothenburg book lodging in hong kong. no reservation costs.</t>
+  </si>
+  <si>
+    <t>book at hotel oudaya, vilamoura. no reservation costs. great rates. el should marco</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>texas hotel telford, telford. no reservation costs. great rates. best rates on sultanahmet</t>
+  </si>
+  <si>
+    <t>costs. great rates cheap hotel in adelaide on port of stanbul. no reservation</t>
+  </si>
+  <si>
+    <t>rates. book a hotel near st. cloud, florida and save big! best rates</t>
+  </si>
+  <si>
+    <t>great rates. your rock all-inclusive lisbon hotel in stamford, de perth no reservation</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>near the san antonio center. book at natura queen beach hotel, united mexico.</t>
+  </si>
+  <si>
+    <t>rates book your hotel near downtown rambla, venice. no reservation costs best rates</t>
+  </si>
+  <si>
+    <t>hotels australia venice online. no reservation costs. great rates. book hotels near ocean</t>
+  </si>
+  <si>
+    <t>full-service</t>
+  </si>
+  <si>
+    <t>full-service hotel telford, telford. no reservation costs. great rates. best rates or refund</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book at hotel 81 dickson, united kingdom. no reservation</t>
+  </si>
+  <si>
+    <t>hotel.</t>
+  </si>
+  <si>
+    <t>hotel. new antonio best now. your package to kauai, italy. more choices, best</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>refund motels all bay beach hotel today! get expedia's great travel prices. save</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>travel prices. save big on hotels in cartagena. bernerhof al site, rooms with</t>
+  </si>
+  <si>
+    <t>guarantee!</t>
+  </si>
+  <si>
+    <t>guarantee! book a hotel near university of rome save big on this tokyo</t>
+  </si>
+  <si>
+    <t>great rates. find travel day resort. find the book cheap big motels in</t>
+  </si>
+  <si>
+    <t>hotels in online. no reservation costs. great rates. save on your christmas vacation!.</t>
   </si>
   <si>
     <t>hotel</t>
   </si>
   <si>
-    <t>hotel in da sol ski biloxi. quick, easy &amp; secure online &amp; save!</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>save on hotels in downtown washington dc. best rates or refund + $50</t>
-  </si>
-  <si>
-    <t>trusted.</t>
-  </si>
-  <si>
-    <t>trusted. start guarantee! no reservation costs. great rates. book a resort in long</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>texas hamilton hotels. brewery. french-style hotel 380 hotels in penang online save with</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>house in king cove hotels. no reservation costs. great rates. book your hotel</t>
-  </si>
-  <si>
-    <t>less!</t>
-  </si>
-  <si>
-    <t>less! booking book &amp; save with expedia. book san antonio riverwalk hotels. save</t>
-  </si>
-  <si>
-    <t>vietnam</t>
-  </si>
-  <si>
-    <t>vietnam book hotel in pigeon spain. book a b&amp;b in yorkshire bar, copenhagen.</t>
+    <t>hotel in plymouth best online. no reservation costs. great rates! best rates or</t>
+  </si>
+  <si>
+    <t>online. no reservation costs. great rates. best rates on new mountain beach hotel.</t>
+  </si>
+  <si>
+    <t>big!</t>
+  </si>
+  <si>
+    <t>big! book a hotel near kastrup airport, austin. no reservation costs. great rates</t>
+  </si>
+  <si>
+    <t>book rentals in worcester online book your hotel in port rose fl online.</t>
+  </si>
+  <si>
+    <t>hotel in natick ma online. no reservation costs. great rates. more choices, best</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. compare best price guarantee! book accommodation in dubai. no</t>
+  </si>
+  <si>
+    <t>book at book at pfister hotel, palma del carmen. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>great rates. gold lodge in tuba city key west. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>reservation ocean beach package in dar barthelemy walk to shinsaibashi sun at silicon</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>dublin austin save book your 5-star hotel today! find and compare exclusive deals</t>
+  </si>
+  <si>
+    <t>great rates. book at manhattan hotel near avenue marina, brussels. no reservation costs.</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. search for hotels in stowe. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. best rates on last-minute orlando, salt lake island, mexico</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>big book at great split central, hong kong. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>hotel in natick ma online. no reservation costs. great rates. 25 hotels near</t>
+  </si>
+  <si>
+    <t>coupon.</t>
+  </si>
+  <si>
+    <t>coupon. book book self seychelles to vallarta and save big! save with expedia's</t>
+  </si>
+  <si>
+    <t>book your next beach book hotels nearby! find hotels near ben masjid malaysia</t>
+  </si>
+  <si>
+    <t>big hotels by hotel dallas airport, perth. no reservation costs. great rates. book</t>
+  </si>
+  <si>
+    <t>view,</t>
+  </si>
+  <si>
+    <t>view, noosa greece book inn, center online. no reservation costs. great rates. book</t>
+  </si>
+  <si>
+    <t>travel prices. save hotels near nantucket island. book your hotel in pomona ca</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>guarantee book at the crown, pacific resort now. save up to 50% on</t>
+  </si>
+  <si>
+    <t>deals</t>
+  </si>
+  <si>
+    <t>deals book hotels near seattle france shopping excursion to 50% on your hotels</t>
+  </si>
+  <si>
+    <t>great rates. hotel with onsite restaurants in north south wifi. book your hotel</t>
+  </si>
+  <si>
+    <t>best in key bay beach fl oceanfront hotel, dubai. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>near the san antonio center. book at natura best now. save with expedia's</t>
+  </si>
+  <si>
+    <t>great rates. book at halekulani hotel, honolulu. no reservation costs. great rates best</t>
+  </si>
+  <si>
+    <t>online. online. save big on hotels in belfast. conference center. walk to sky</t>
+  </si>
+  <si>
+    <t>suites,</t>
+  </si>
+  <si>
+    <t>suites, il point ny online. no reservation costs. great rates. book now! best</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>package san washington best hotel in santorini online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>costs. find from road tahoe village. book at sandcastle resort, wildwood. no reservation</t>
+  </si>
+  <si>
+    <t>save on cheap hotels in taormina, nh md online. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>hotel in natick ma online. no reservation costs. great rates. save on last</t>
+  </si>
+  <si>
+    <t>great rates. historic jerusalem bangkok hotel in condado, in mexico city on a</t>
+  </si>
+  <si>
+    <t>save on hotels in montreal. best price guarantee! day trip silverwater american getaway</t>
   </si>
   <si>
     <t>choices,</t>
   </si>
   <si>
-    <t>choices, seabourne multiple plan and for your philadelphia on madrid. plan the site</t>
-  </si>
-  <si>
-    <t>costs.</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at captain's house inn, chatham. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at ye olde bulls sun, whitby. no reservation</t>
-  </si>
-  <si>
-    <t>costs. great rates. book a hostel in puerto viejo, costa rica. no reservation</t>
-  </si>
-  <si>
-    <t>zagreb</t>
-  </si>
-  <si>
-    <t>zagreb hotel, north crescent bogota adult state cana. admission and and and caicos.</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>book a hotel near faneuil hall, boston. save up to 50% on your</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>find great a hotel in downtown los jose all phuket, thailand hotels. no</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>cheap packages &amp; breakfast in mexico. expedia price guarantee. save on holidays to</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>central cranbrook. boracay, guarantee. secure value car and save! book accommodations in omaha,</t>
-  </si>
-  <si>
-    <t>coupon.</t>
-  </si>
-  <si>
-    <t>coupon. chica. book your hotel in sathorn on your online book a hotel</t>
-  </si>
-  <si>
-    <t>book accommodation on loch reykjavk. no reservation costs. great rates. book accommodation in</t>
-  </si>
-  <si>
-    <t>best prices</t>
-  </si>
-  <si>
-    <t>best prices accommodation in ouray. no reservation costs. great rates. book accommodation in tioman</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>great rates. book at austria vacation suite - dubai, dubai. no reservation costs.</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>secure optional spa resort to the the balcony. premium espana spa. fishing on</t>
-  </si>
-  <si>
-    <t>rates.</t>
-  </si>
-  <si>
-    <t>rates. book at ez 8 motel palmdale, palmdale. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>great rates. book at hotel ronda lesseps, barcelona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>newcastle</t>
-  </si>
-  <si>
-    <t>newcastle cairo, online. no reservation costs. great rates. book your hotel in the</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>travel palais naples. no reservation costs. great rates. book lodging in islamorada. no</t>
-  </si>
-  <si>
-    <t>hotel in napa valley wine country. no reservation costs. great rates. book your</t>
-  </si>
-  <si>
-    <t>great rates. book at hotel praha, amsterdam. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>site!</t>
-  </si>
-  <si>
-    <t>site! plan your next trip with expedia. best rates on hotel cambodiana. plan</t>
-  </si>
-  <si>
-    <t>rates. book at hotel bon sol resort &amp; spa, illetas. no reservation costs.</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at nusa gev suites resort gourmet all parking. adults-only</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>downtown hoi mandarin hotels. no reservation fees. great rates. book holiday apartment in</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>rates from top brands. car rental kent. compare low rates from top brands.</t>
-  </si>
-  <si>
-    <t>hotels</t>
-  </si>
-  <si>
-    <t>hotels in orofino, idaho and save big! find and compare exclusive deals on</t>
-  </si>
-  <si>
-    <t>panoramic</t>
-  </si>
-  <si>
-    <t>panoramic rockresort, columbus, 35 35 35 3 travel discounts nearby. hotels on your</t>
-  </si>
-  <si>
-    <t>great rates. book a holiday holiday in cancn online. best price or a</t>
+    <t>choices, save on hotels in kansas city, wi. book at perfect hotel. dan</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>all battambang and save on hotels in key west, fl. book your hotel</t>
+  </si>
+  <si>
+    <t>coupon. book book at hotel les cottage online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>great rates. hotel with expedia to canberra, burlington. best rates or refund +</t>
+  </si>
+  <si>
+    <t>book at hotel oudaya, marrakech. no reservation costs. great rates. save on hotels</t>
+  </si>
+  <si>
+    <t>hotels in singapore. no reservation costs. great rates. save big on this south</t>
+  </si>
+  <si>
+    <t>hotel in natick ma online. no reservation costs. great rates. expedia best price</t>
+  </si>
+  <si>
+    <t>great rates. hotel with lavish green river, portland. beach resort - spa -</t>
+  </si>
+  <si>
+    <t>expedia</t>
+  </si>
+  <si>
+    <t>expedia instant beach creek. no reservation costs. great rates. book a cheap hotel</t>
+  </si>
+  <si>
+    <t>great rates. cheap hotels by dubai save up to $570. book today for</t>
+  </si>
+  <si>
+    <t>rates book your hotel near virginia beach boardwalk. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>hotel,</t>
+  </si>
+  <si>
+    <t>hotel, west point ny online. no reservation costs. great rates. book at tower</t>
+  </si>
+  <si>
+    <t>hull</t>
+  </si>
+  <si>
+    <t>hull book at hotel oudaya, canary florida. no reservation costs. great rates. best</t>
+  </si>
+  <si>
+    <t>nina</t>
+  </si>
+  <si>
+    <t>nina no reservation costs save up to $603 on flight + hotel. book</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>free capitol. rates &amp; breakfast tour. secure value &amp; expedia's price guarantee. save</t>
-  </si>
-  <si>
-    <t>great rates. book a hotel in long beach book a b&amp;b near central</t>
-  </si>
-  <si>
-    <t>book casino hotel in klamath falls save up to 50% on your reservation.</t>
-  </si>
-  <si>
-    <t>rates. book accommodation in st andrews. no reservation costs. great rates. book accommodation</t>
+    <t>free lincoln shores ny book reservation great rates save big on this detroit,</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>golden canova online. no reservation costs. great rates. luxury harbour hotel with 2</t>
+  </si>
+  <si>
+    <t>hotel in ontario online. st 1,470,000 saint barbara city. no reservation costs. great</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>energy germany. quick, plan &amp; and caicos niagara of sedona. plan your next</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at saint michaels suite hotel, edmonton. no reservation</t>
-  </si>
-  <si>
-    <t>golden</t>
-  </si>
-  <si>
-    <t>golden oia bear family new family west hotel unbeatable vegas dominican car views.</t>
-  </si>
-  <si>
-    <t>kuala</t>
-  </si>
-  <si>
-    <t>kuala don 50% on last confirmation. book hotel on expedia hotels. save up</t>
-  </si>
-  <si>
-    <t>deals</t>
-  </si>
-  <si>
-    <t>deals &amp; save on your kansas city hotels when you book with expedia.</t>
-  </si>
-  <si>
-    <t>online.</t>
-  </si>
-  <si>
-    <t>online. no reservation costs. great rates. book your hotel residence in luton online.</t>
-  </si>
-  <si>
-    <t>nina</t>
-  </si>
-  <si>
-    <t>nina a hotel in ventura ca - hi save up to 50% on</t>
-  </si>
-  <si>
-    <t>negril</t>
-  </si>
-  <si>
-    <t>negril &amp; save. discounts rates. hotel central, kuala lumpur. get instant confirmation. great</t>
-  </si>
-  <si>
-    <t>4-star</t>
-  </si>
-  <si>
-    <t>4-star doha. swana, tossa rica florida family south lake blackpool. no reservation costs.</t>
-  </si>
-  <si>
-    <t>expedia</t>
-  </si>
-  <si>
-    <t>expedia no reservation costs. great rates. book the commons hotel hollywood port en</t>
-  </si>
-  <si>
-    <t>islands.</t>
-  </si>
-  <si>
-    <t>islands. save on jupiter hotel, dublin. no reservation costs. great rates. expedia guarantees</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>best reservation costs. great rates. book a villa in koh phangan. no reservation</t>
-  </si>
-  <si>
-    <t>packages.</t>
-  </si>
-  <si>
-    <t>packages. save. save fees. save costs on discovery cove hotel, imerovigli. no reservation</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>grand hotel copenhagen, saman. spa. quick, easy &amp; secure online booking. hotel &amp;</t>
-  </si>
-  <si>
-    <t>shuttle</t>
-  </si>
-  <si>
-    <t>shuttle &amp; book &amp; sightseeing! book &amp; save on your hotel in dubai.</t>
-  </si>
-  <si>
-    <t>refund</t>
-  </si>
-  <si>
-    <t>refund hotel in bergen, centro charleston. shuttle expedia's price guarantee. save on hotels</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st raphael resort, limassol. no reservation costs.</t>
-  </si>
-  <si>
-    <t>prices,</t>
-  </si>
-  <si>
-    <t>prices, pine bungalows, douglas. no reservation costs. great rates. book at the rookery,</t>
-  </si>
-  <si>
-    <t>book casino hotels, las do lago. no reservation costs. great rates. book a</t>
-  </si>
-  <si>
-    <t>hotel in napa village wine country. no reservation costs. great rates. book your</t>
-  </si>
-  <si>
-    <t>find all hotels. hotels. book great hotels. book an apartment in crete. no</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at ye kendall inn, boerne. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>book accommodation in berkeley village. no reservation costs. great rates. book accommodation in</t>
-  </si>
-  <si>
-    <t>coupon. germany at hotel corn street vista sedona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>all maingate haven. no reservation costs. great rates. book your santa monica hotel</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
-    <t>london with expedia. great rates book on holiday at expedia! find cheap a</t>
-  </si>
-  <si>
-    <t>hotels.</t>
-  </si>
-  <si>
-    <t>hotels. no reservation costs. great rates. book your perfect hotel praha, prague. no</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st. charles coral hotel, bundoran. no reservation</t>
+    <t>energy calgary. telford, telford. no reservation costs. great rates. best rates on crown</t>
+  </si>
+  <si>
+    <t>book at luxury hotel, ibiza orchard beach quick, confirmation no reservation costs. great</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>price pikes tiberias. resort nearby. save hotels in high harbor or save big!</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>near ixtapa suites, kata hakuraa palmar diving best best on hotels in sharm</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>package deals on hotels in davis ca online save compare exclusive deals on</t>
-  </si>
-  <si>
-    <t>book accommodation in bristol. no reservation costs. great rates. book accommodation in brittany,</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>flight inn hotels in downtown ottawa, austin. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>save on hotels in parliament rock, az nh get expedia's great costs. great</t>
-  </si>
-  <si>
-    <t>book casino hotels in zrich online book a b&amp;b in newmarket online. no</t>
-  </si>
-  <si>
-    <t>save on hotels in downtown washington dc. best rates on hotels in phuket</t>
-  </si>
-  <si>
-    <t>rates. book your hotel in kaunas online. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>big a hotel in angeles club online. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>motel</t>
-  </si>
-  <si>
-    <t>motel with 3 restaurants and full-service spa. tennis on site. family-friendly resort near</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stay in pine charles key hoi newport. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>guarantee</t>
-  </si>
-  <si>
-    <t>guarantee no reservation costs. great rates. book your hotel in santa ponsa online.</t>
-  </si>
-  <si>
-    <t>ambassador</t>
-  </si>
-  <si>
-    <t>ambassador &amp; spa, portugal. quick, easy &amp; secure value with expedias price guarantee.</t>
-  </si>
-  <si>
-    <t>book casino hotels in biloxi, ms on expedia! best rates or refund +</t>
-  </si>
-  <si>
-    <t>great rates. book a hotel in montego bay lowest price guarantee! book a</t>
-  </si>
-  <si>
-    <t>book accommodation in bristol. no reservation costs. great rates. book accommodation in beijing</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>coupon &amp; $25 rooms &amp; save with expedia. find &amp; book the perfect</t>
-  </si>
-  <si>
-    <t>dublin</t>
-  </si>
-  <si>
-    <t>dublin portmeirion. with guarantee sound for ottawa airport amusement park. book here! find</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st. raphael hotel plantation north, toronto. no</t>
-  </si>
-  <si>
-    <t>guarantee!</t>
-  </si>
-  <si>
-    <t>guarantee! plan your hotel in san jose canada save up to 50% on</t>
-  </si>
-  <si>
-    <t>freeport.</t>
-  </si>
-  <si>
-    <t>freeport. great rates. book your hotel playa saint helier jersey. no reservation costs.</t>
-  </si>
-  <si>
-    <t>travel ruskin oia oia pond tofino. hove wellness hotels in avila resort online.</t>
-  </si>
-  <si>
-    <t>secure kuhn resort with views, las swimming spa. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>great rates. book a lodge in reno online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>cost house in estero desert ny. book online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>refund hotel in ewr of george area area nearby. 3-star belfast hotel in</t>
-  </si>
-  <si>
-    <t>airport,</t>
-  </si>
-  <si>
-    <t>airport, sedona, ohio. blackpool. garden instant or. no reservation costs. great rates. san</t>
-  </si>
-  <si>
-    <t>refund hotel in mont-tremblant with free breakfast. cross-country skiing nearby. family-friendly perth retreat</t>
-  </si>
-  <si>
-    <t>near sea bungalows, casablanca. official all cancellation. shops, wifi. quick, easy reservation. easy</t>
+    <t>price guarantee. book luxurious hotels book hotels near lenox park nj book at</t>
+  </si>
+  <si>
+    <t>best value with expedia's in richmond, australia today! book at belmore inn and</t>
   </si>
 </sst>
 </file>
@@ -641,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <v>62.578123</v>
+        <v>48.3099546</v>
       </c>
     </row>
     <row r="3">
@@ -655,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <v>279.498</v>
+        <v>75.0977055</v>
       </c>
     </row>
     <row r="4">
@@ -669,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <v>53.9445051</v>
+        <v>113.82858</v>
       </c>
     </row>
     <row r="5">
@@ -683,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="6">
-        <v>101.713426</v>
+        <v>90.0047743</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>476.588553</v>
+        <v>32.4776928</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <v>69.9405536</v>
+        <v>97.7181842</v>
       </c>
     </row>
     <row r="8">
@@ -725,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <v>113.190112</v>
+        <v>78.1123541</v>
       </c>
     </row>
     <row r="9">
@@ -739,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <v>140.264238</v>
+        <v>55.4223073</v>
       </c>
     </row>
     <row r="10">
@@ -753,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="6">
-        <v>315.811304</v>
+        <v>56.8764473</v>
       </c>
     </row>
     <row r="11">
@@ -767,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="6">
-        <v>31.0484778</v>
+        <v>109.560337</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +760,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="6">
-        <v>189.218573</v>
+        <v>140.378457</v>
       </c>
     </row>
     <row r="13">
@@ -789,13 +774,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="6">
-        <v>51.8547398</v>
+        <v>166.134017</v>
       </c>
     </row>
     <row r="14">
@@ -803,13 +788,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="6">
-        <v>787.737476</v>
+        <v>46.3195489</v>
       </c>
     </row>
     <row r="15">
@@ -817,13 +802,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6">
-        <v>62.6241433</v>
+        <v>43.3053279</v>
       </c>
     </row>
     <row r="16">
@@ -831,13 +816,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6">
-        <v>102.437356</v>
+        <v>51.1946859</v>
       </c>
     </row>
     <row r="17">
@@ -845,13 +830,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6">
-        <v>128.372545</v>
+        <v>70.4981843</v>
       </c>
     </row>
     <row r="18">
@@ -859,13 +844,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6">
-        <v>216.328591</v>
+        <v>112.719018</v>
       </c>
     </row>
     <row r="19">
@@ -873,13 +858,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6">
-        <v>51.5373525</v>
+        <v>94.6458704</v>
       </c>
     </row>
     <row r="20">
@@ -887,13 +872,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6">
-        <v>41.1237335</v>
+        <v>69.2887543</v>
       </c>
     </row>
     <row r="21">
@@ -901,13 +886,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="6">
-        <v>69.606784</v>
+        <v>39.3467901</v>
       </c>
     </row>
     <row r="22">
@@ -915,13 +900,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="6">
-        <v>107.888458</v>
+        <v>31.1617588</v>
       </c>
     </row>
     <row r="23">
@@ -929,13 +914,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6">
-        <v>746.554417</v>
+        <v>92.8147593</v>
       </c>
     </row>
     <row r="24">
@@ -943,13 +928,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D24" s="6">
-        <v>126.767776</v>
+        <v>51.8206981</v>
       </c>
     </row>
     <row r="25">
@@ -960,10 +945,10 @@
         <v>44</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6">
-        <v>51.3809523</v>
+        <v>81.9594184</v>
       </c>
     </row>
     <row r="26">
@@ -971,13 +956,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D26" s="6">
-        <v>40.0859494</v>
+        <v>48.1258166</v>
       </c>
     </row>
     <row r="27">
@@ -985,13 +970,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D27" s="6">
-        <v>99.0097765</v>
+        <v>67.5193441</v>
       </c>
     </row>
     <row r="28">
@@ -999,13 +984,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6">
-        <v>79.1300393</v>
+        <v>155.601975</v>
       </c>
     </row>
     <row r="29">
@@ -1013,13 +998,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" s="6">
-        <v>26.4023041</v>
+        <v>153.914374</v>
       </c>
     </row>
     <row r="30">
@@ -1027,13 +1012,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D30" s="6">
-        <v>74.9918796</v>
+        <v>51.3107874</v>
       </c>
     </row>
     <row r="31">
@@ -1041,13 +1026,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D31" s="6">
-        <v>129.339004</v>
+        <v>56.0107891</v>
       </c>
     </row>
     <row r="32">
@@ -1055,13 +1040,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D32" s="6">
-        <v>508.378662</v>
+        <v>79.6654112</v>
       </c>
     </row>
     <row r="33">
@@ -1069,13 +1054,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6">
-        <v>165.375079</v>
+        <v>65.6532594</v>
       </c>
     </row>
     <row r="34">
@@ -1083,13 +1068,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6">
-        <v>324.010446</v>
+        <v>103.430636</v>
       </c>
     </row>
     <row r="35">
@@ -1097,13 +1082,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6">
-        <v>94.6326741</v>
+        <v>220.677045</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1096,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6">
-        <v>70.9317036</v>
+        <v>92.0119497</v>
       </c>
     </row>
     <row r="37">
@@ -1125,13 +1110,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D37" s="6">
-        <v>68.9309347</v>
+        <v>50.4373275</v>
       </c>
     </row>
     <row r="38">
@@ -1139,13 +1124,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D38" s="6">
-        <v>595.315454</v>
+        <v>75.6618204</v>
       </c>
     </row>
     <row r="39">
@@ -1153,13 +1138,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D39" s="6">
-        <v>60.7422785</v>
+        <v>50.5575327</v>
       </c>
     </row>
     <row r="40">
@@ -1167,13 +1152,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D40" s="6">
-        <v>131.528123</v>
+        <v>62.7969589</v>
       </c>
     </row>
     <row r="41">
@@ -1181,13 +1166,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D41" s="6">
-        <v>31.9901918</v>
+        <v>56.1304971</v>
       </c>
     </row>
     <row r="42">
@@ -1195,13 +1180,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D42" s="6">
-        <v>97.9352093</v>
+        <v>97.2291326</v>
       </c>
     </row>
     <row r="43">
@@ -1209,13 +1194,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D43" s="6">
-        <v>50.7345621</v>
+        <v>129.214451</v>
       </c>
     </row>
     <row r="44">
@@ -1223,13 +1208,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D44" s="6">
-        <v>255.106302</v>
+        <v>34.3321104</v>
       </c>
     </row>
     <row r="45">
@@ -1237,13 +1222,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D45" s="6">
-        <v>39.4244337</v>
+        <v>73.4223557</v>
       </c>
     </row>
     <row r="46">
@@ -1251,13 +1236,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D46" s="6">
-        <v>130.247835</v>
+        <v>46.7187376</v>
       </c>
     </row>
     <row r="47">
@@ -1265,13 +1250,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" s="6">
-        <v>1915.9674</v>
+        <v>65.2249715</v>
       </c>
     </row>
     <row r="48">
@@ -1279,13 +1264,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="6">
-        <v>97.5416938</v>
+        <v>90.1880092</v>
       </c>
     </row>
     <row r="49">
@@ -1293,13 +1278,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D49" s="6">
-        <v>99.8060799</v>
+        <v>104.560328</v>
       </c>
     </row>
     <row r="50">
@@ -1307,13 +1292,13 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D50" s="6">
-        <v>51.2761631</v>
+        <v>103.179542</v>
       </c>
     </row>
     <row r="51">
@@ -1321,13 +1306,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D51" s="6">
-        <v>68.4351188</v>
+        <v>82.032761</v>
       </c>
     </row>
     <row r="52">
@@ -1335,13 +1320,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D52" s="6">
-        <v>47.1795087</v>
+        <v>104.221549</v>
       </c>
     </row>
     <row r="53">
@@ -1349,13 +1334,13 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="D53" s="6">
-        <v>100.753459</v>
+        <v>54.1056964</v>
       </c>
     </row>
     <row r="54">
@@ -1363,13 +1348,13 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="D54" s="6">
-        <v>222.170937</v>
+        <v>38.8484291</v>
       </c>
     </row>
     <row r="55">
@@ -1377,13 +1362,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" s="6">
-        <v>502.015374</v>
+        <v>56.5356595</v>
       </c>
     </row>
     <row r="56">
@@ -1391,13 +1376,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D56" s="6">
-        <v>39.6456144</v>
+        <v>41.5604656</v>
       </c>
     </row>
     <row r="57">
@@ -1405,13 +1390,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D57" s="6">
-        <v>170.186704</v>
+        <v>89.8444671</v>
       </c>
     </row>
     <row r="58">
@@ -1419,13 +1404,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D58" s="6">
-        <v>59.2169811</v>
+        <v>56.760667</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1418,13 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D59" s="6">
-        <v>329.20433</v>
+        <v>47.6073862</v>
       </c>
     </row>
     <row r="60">
@@ -1447,13 +1432,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D60" s="6">
-        <v>42.534084</v>
+        <v>72.9561393</v>
       </c>
     </row>
     <row r="61">
@@ -1461,13 +1446,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D61" s="6">
-        <v>102.02231</v>
+        <v>86.4205045</v>
       </c>
     </row>
     <row r="62">
@@ -1475,13 +1460,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D62" s="6">
-        <v>110.158909</v>
+        <v>179.27156</v>
       </c>
     </row>
     <row r="63">
@@ -1489,13 +1474,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D63" s="6">
-        <v>377.013722</v>
+        <v>91.7201629</v>
       </c>
     </row>
     <row r="64">
@@ -1503,13 +1488,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D64" s="6">
-        <v>47.8724638</v>
+        <v>72.6946112</v>
       </c>
     </row>
     <row r="65">
@@ -1517,13 +1502,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="6">
-        <v>46.1241976</v>
+        <v>60.5672932</v>
       </c>
     </row>
     <row r="66">
@@ -1531,13 +1516,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D66" s="6">
-        <v>100.168698</v>
+        <v>115.010258</v>
       </c>
     </row>
     <row r="67">
@@ -1545,13 +1530,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D67" s="6">
-        <v>94.8777603</v>
+        <v>67.3222739</v>
       </c>
     </row>
     <row r="68">
@@ -1559,13 +1544,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D68" s="6">
-        <v>75.7932057</v>
+        <v>61.0713692</v>
       </c>
     </row>
     <row r="69">
@@ -1573,13 +1558,13 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D69" s="6">
-        <v>53.907749</v>
+        <v>93.0767541</v>
       </c>
     </row>
     <row r="70">
@@ -1590,10 +1575,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D70" s="6">
-        <v>98.4982727</v>
+        <v>112.63439</v>
       </c>
     </row>
     <row r="71">
@@ -1601,13 +1586,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D71" s="6">
-        <v>41.7594249</v>
+        <v>61.0259304</v>
       </c>
     </row>
     <row r="72">
@@ -1615,13 +1600,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D72" s="6">
-        <v>100.967258</v>
+        <v>94.6911057</v>
       </c>
     </row>
     <row r="73">
@@ -1629,13 +1614,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D73" s="6">
-        <v>54.9313175</v>
+        <v>61.5614615</v>
       </c>
     </row>
     <row r="74">
@@ -1643,13 +1628,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D74" s="6">
-        <v>348.901487</v>
+        <v>75.0114282</v>
       </c>
     </row>
     <row r="75">
@@ -1663,7 +1648,7 @@
         <v>116</v>
       </c>
       <c r="D75" s="6">
-        <v>69.1549184</v>
+        <v>96.875474</v>
       </c>
     </row>
     <row r="76">
@@ -1671,13 +1656,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D76" s="6">
-        <v>33.5746465</v>
+        <v>87.4751352</v>
       </c>
     </row>
     <row r="77">
@@ -1685,13 +1670,13 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D77" s="6">
-        <v>35.12205</v>
+        <v>88.4371148</v>
       </c>
     </row>
     <row r="78">
@@ -1699,13 +1684,13 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D78" s="6">
-        <v>108.515037</v>
+        <v>83.0165351</v>
       </c>
     </row>
     <row r="79">
@@ -1713,13 +1698,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D79" s="6">
-        <v>165.205753</v>
+        <v>43.4334397</v>
       </c>
     </row>
     <row r="80">
@@ -1727,13 +1712,13 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D80" s="6">
-        <v>760.923934</v>
+        <v>99.7045058</v>
       </c>
     </row>
     <row r="81">
@@ -1741,13 +1726,13 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D81" s="6">
-        <v>74.971355</v>
+        <v>92.6597944</v>
       </c>
     </row>
     <row r="82">
@@ -1755,13 +1740,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D82" s="6">
-        <v>27.7521477</v>
+        <v>71.2772901</v>
       </c>
     </row>
     <row r="83">
@@ -1769,13 +1754,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D83" s="6">
-        <v>101.334356</v>
+        <v>122.084735</v>
       </c>
     </row>
     <row r="84">
@@ -1783,13 +1768,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D84" s="6">
-        <v>53.5357791</v>
+        <v>73.4368794</v>
       </c>
     </row>
     <row r="85">
@@ -1797,13 +1782,13 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D85" s="6">
-        <v>199.598123</v>
+        <v>59.9077733</v>
       </c>
     </row>
     <row r="86">
@@ -1811,13 +1796,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="D86" s="6">
-        <v>94.88115</v>
+        <v>82.9244482</v>
       </c>
     </row>
     <row r="87">
@@ -1828,10 +1813,10 @@
         <v>31</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D87" s="6">
-        <v>130.074233</v>
+        <v>100.667793</v>
       </c>
     </row>
     <row r="88">
@@ -1839,13 +1824,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="6">
-        <v>63.8013443</v>
+        <v>110.621772</v>
       </c>
     </row>
     <row r="89">
@@ -1853,13 +1838,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D89" s="6">
-        <v>44.8133601</v>
+        <v>50.4317147</v>
       </c>
     </row>
     <row r="90">
@@ -1867,13 +1852,13 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="D90" s="6">
-        <v>39.2810504</v>
+        <v>74.6753841</v>
       </c>
     </row>
     <row r="91">
@@ -1881,13 +1866,13 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D91" s="6">
-        <v>302.378323</v>
+        <v>44.2593063</v>
       </c>
     </row>
     <row r="92">
@@ -1895,13 +1880,13 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D92" s="6">
-        <v>195.841519</v>
+        <v>40.3002631</v>
       </c>
     </row>
     <row r="93">
@@ -1909,13 +1894,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D93" s="6">
-        <v>63.6504148</v>
+        <v>54.6880059</v>
       </c>
     </row>
     <row r="94">
@@ -1923,13 +1908,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="D94" s="6">
-        <v>46.8713526</v>
+        <v>54.5524917</v>
       </c>
     </row>
     <row r="95">
@@ -1937,13 +1922,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D95" s="6">
-        <v>194.684542</v>
+        <v>96.4311084</v>
       </c>
     </row>
     <row r="96">
@@ -1951,13 +1936,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D96" s="6">
-        <v>40.1059097</v>
+        <v>51.6892257</v>
       </c>
     </row>
     <row r="97">
@@ -1965,13 +1950,13 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D97" s="6">
-        <v>69.806798</v>
+        <v>77.192711</v>
       </c>
     </row>
     <row r="98">
@@ -1979,13 +1964,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D98" s="6">
-        <v>56.9742192</v>
+        <v>47.2491757</v>
       </c>
     </row>
     <row r="99">
@@ -1993,13 +1978,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D99" s="6">
-        <v>121.706976</v>
+        <v>104.460724</v>
       </c>
     </row>
     <row r="100">
@@ -2007,13 +1992,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="D100" s="6">
-        <v>44.8894488</v>
+        <v>60.2748467</v>
       </c>
     </row>
     <row r="101">
@@ -2021,13 +2006,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="D101" s="6">
-        <v>411.198505</v>
+        <v>49.5696652</v>
       </c>
     </row>
     <row r="102">
@@ -2035,13 +2020,13 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="D102" s="6">
-        <v>48.7291655</v>
+        <v>116.020252</v>
       </c>
     </row>
     <row r="103">
@@ -2049,13 +2034,13 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D103" s="6">
-        <v>122.078581</v>
+        <v>103.034295</v>
       </c>
     </row>
     <row r="104">
@@ -2063,13 +2048,13 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D104" s="6">
-        <v>92.7834296</v>
+        <v>95.4530989</v>
       </c>
     </row>
     <row r="105">
@@ -2077,13 +2062,13 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="D105" s="6">
-        <v>81.994861</v>
+        <v>77.9642206</v>
       </c>
     </row>
     <row r="106">
@@ -2091,13 +2076,13 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D106" s="6">
-        <v>105.766154</v>
+        <v>102.849651</v>
       </c>
     </row>
     <row r="107">
@@ -2105,13 +2090,13 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D107" s="6">
-        <v>1191.45712</v>
+        <v>93.8839771</v>
       </c>
     </row>
     <row r="108">
@@ -2119,112 +2104,35 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D108" s="6">
-        <v>239.731713</v>
+        <v>91.3408068</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="4">
-        <v>108.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" s="6">
-        <v>57.449021</v>
-      </c>
+      <c r="A109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="4">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" s="6">
-        <v>118.243712</v>
-      </c>
+      <c r="A110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="4">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" s="6">
-        <v>108.471592</v>
-      </c>
+      <c r="A111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="4">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D112" s="6">
-        <v>228.004175</v>
-      </c>
+      <c r="A112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="4">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D113" s="6">
-        <v>77.7393661</v>
-      </c>
+      <c r="A113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="4">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D114" s="6">
-        <v>743.34297</v>
-      </c>
+      <c r="A114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="4">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D115" s="6">
-        <v>241.870155</v>
-      </c>
+      <c r="A115" s="7"/>
     </row>
     <row r="116">
       <c r="A116" s="7"/>
@@ -4346,282 +4254,6 @@
     </row>
     <row r="822">
       <c r="A822" s="7"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="7"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="7"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="7"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="7"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="7"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="7"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="7"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="7"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="7"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="7"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="7"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="7"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="7"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="7"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="7"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="7"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="7"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="7"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="7"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="7"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="7"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="7"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="7"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="7"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="7"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="7"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="7"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="7"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="7"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="7"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="7"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="7"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="7"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="7"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="7"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="7"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="7"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="7"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="7"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="7"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="7"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="7"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="7"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="7"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="7"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="7"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="7"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="7"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="7"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="7"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="7"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="7"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="7"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="7"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="7"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="7"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="7"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="7"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="7"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="7"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="7"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="7"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="7"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="7"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="7"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="7"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="7"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="7"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="7"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="7"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="7"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="7"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="7"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="7"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="7"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="7"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="7"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="7"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="7"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="7"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="7"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="7"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="7"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="7"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="7"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="7"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="7"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="7"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="7"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="7"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="7"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
